--- a/medicine/Psychotrope/Champion_Beer_Of_Britain/Champion_Beer_Of_Britain.xlsx
+++ b/medicine/Psychotrope/Champion_Beer_Of_Britain/Champion_Beer_Of_Britain.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Champion Beer of Britain (CBOB) est une distinction remise par la Campaign for Real Ale (CAMRA) lors du Great British Beer Festival (GBBF), fête de la bière britannique tenue chaque début août, à la bière nommée préférée des votants. 
 </t>
@@ -511,7 +523,9 @@
           <t>Critères</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les bières doivent répondre aux critères suivants pour être nommées :
 La CAMRA teste tout d'abord des panels de bières par région géographique du Royaume-Uni. Les recommandations sont regroupées en six régions avec le vainqueur nommé pour la finale tenue au mois d'août
@@ -547,7 +561,9 @@
           <t>Catégories</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les bières sont classées par catégorie en fonction de leur style et de leur teneur en alcool :
 Barley Wines
@@ -590,7 +606,9 @@
           <t>Changements de nom</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les catégories Barley Wines et Old Ales ont changé de nom au fil des années. La distinction pour cette catégorie a commencé en 1991.
 La catégorie Strong Ale change de nom en 1991 pour Strong Bitter à la suite de l'ajout de la catégorie Strong Milds dans la catégorie Old Ales.
@@ -622,7 +640,9 @@
           <t>Winter ales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Depuis 1996, les catégories Barley Wines, Old Ales &amp; Strong Milds et Porters &amp; Stouts sont jugées dans le cadre du National Winter Ales Festival (NWAF) pour la distinction de Champion Winter Beer Of Britain (WiBOB).
 </t>
@@ -655,8 +675,13 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Catégorie Supreme Champion
-1978 - Thwaites Best Mild and Fuller's ESB (ex-aequo)
+          <t>Catégorie Supreme Champion</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1978 - Thwaites Best Mild and Fuller's ESB (ex-aequo)
 1979 - Fuller's London Pride
 1980 - Thwaites Best Mild
 1981 - Fuller's ESB
